--- a/biology/Zoologie/Buse_de_Socotra/Buse_de_Socotra.xlsx
+++ b/biology/Zoologie/Buse_de_Socotra/Buse_de_Socotra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buteo socotraensis
 La Buse de Socotra (Buteo socotraensis) est une espèce d'oiseaux de la famille des Accipitridae. Elle était, et est encore souvent, considérée comme une sous-espèce de la Buse variable (Buteo buteo).
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est endémique de l'île de Socotra.
 </t>
@@ -543,9 +557,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bien que connue au moins depuis 1899 de William Robert Ogilvie-Grant et de Henry Ogg Forbes qui ont récolté l'holotype, Buteo socotraensis a longtemps été et est encore souvent considérée comme une sous-espèce de la Buse variable (Buteo buteo). Elle en a été séparée après des études génétiques en 2000[1], mais sa description formelle n'a été faite qu'en 2010[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien que connue au moins depuis 1899 de William Robert Ogilvie-Grant et de Henry Ogg Forbes qui ont récolté l'holotype, Buteo socotraensis a longtemps été et est encore souvent considérée comme une sous-espèce de la Buse variable (Buteo buteo). Elle en a été séparée après des études génétiques en 2000, mais sa description formelle n'a été faite qu'en 2010.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) R.F. Porter et Guy M. Kirwan, « Studies of Socotran birds VI. The taxonomic status of the Socotra Buzzard », Bulletin of the British Ornithologists' Club, vol. 130, no 2,‎ 2010, p. 116-131 (lire en ligne [PDF])</t>
         </is>
